--- a/Calendario dei santi - Cathopedia, l'enciclopedia cattolica.xlsx
+++ b/Calendario dei santi - Cathopedia, l'enciclopedia cattolica.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="380">
   <si>
     <t>Beata Vergine Maria della Mercede</t>
   </si>
@@ -1161,6 +1161,12 @@
   </si>
   <si>
     <t>DTEND;VALUE=DATE</t>
+  </si>
+  <si>
+    <t>20160229</t>
+  </si>
+  <si>
+    <t>san Peter di Zuniga; san Simplicio (papa)</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1246,6 +1252,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -7435,7 +7442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8463,13 +8472,11 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="str">
-        <f>CONCATENATE(config!$B$1,TEXT(data!C61,"00"),TEXT(data!B61,"00"))</f>
-        <v>20180229</v>
-      </c>
-      <c r="B61" t="str">
-        <f>CONCATENATE(config!$B$1,TEXT(data!C61,"00"),TEXT(data!B61,"00"))</f>
-        <v>20180229</v>
+      <c r="A61" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>376</v>
@@ -8508,9 +8515,8 @@
       <c r="C63" t="s">
         <v>375</v>
       </c>
-      <c r="D63" t="str">
-        <f>data!D63</f>
-        <v>san Peter di Zúñiga; san Simplicio (papa)</v>
+      <c r="D63" s="9" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -14078,7 +14084,7 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>CONCATENATE('2018'!A61,",",'2018'!B61,",",'2018'!C61,",",'2018'!D61)</f>
-        <v>20180229,20180229,FREQ=YEARLY;INTERVAL=4,sant' Augusto Chapdelaine</v>
+        <v>20160229,20160229,FREQ=YEARLY;INTERVAL=4,sant' Augusto Chapdelaine</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
@@ -14090,7 +14096,7 @@
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>CONCATENATE('2018'!A63,",",'2018'!B63,",",'2018'!C63,",",'2018'!D63)</f>
-        <v>20180302,20180302,FREQ=YEARLY;INTERVAL=1,san Peter di Zúñiga; san Simplicio (papa)</v>
+        <v>20180302,20180302,FREQ=YEARLY;INTERVAL=1,san Peter di Zuniga; san Simplicio (papa)</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
